--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2044.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2044.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.155941773396403</v>
+        <v>1.286040782928467</v>
       </c>
       <c r="B1">
-        <v>2.505072745878517</v>
+        <v>1.97884476184845</v>
       </c>
       <c r="C1">
-        <v>5.834852410929627</v>
+        <v>5.507226467132568</v>
       </c>
       <c r="D1">
-        <v>2.405378486463951</v>
+        <v>1.920494794845581</v>
       </c>
       <c r="E1">
-        <v>1.214034739447585</v>
+        <v>1.10482931137085</v>
       </c>
     </row>
   </sheetData>
